--- a/transformacion/staging/depurado/stg_actividades_estrategias_depurado.xlsx
+++ b/transformacion/staging/depurado/stg_actividades_estrategias_depurado.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="61">
   <si>
     <t>N°</t>
   </si>
@@ -70,7 +70,19 @@
     <t>Encuentro de Formación Ciclo 1 año 1</t>
   </si>
   <si>
-    <t>Visitas de acompañamiento situado</t>
+    <t>Visitas de acompañamiento situado ciclo 1</t>
+  </si>
+  <si>
+    <t>Encuentro de Formación Ciclo 2 año 1</t>
+  </si>
+  <si>
+    <t>Visitas de acompañamiento situado ciclo 2</t>
+  </si>
+  <si>
+    <t>Encuentro de Formación Ciclo 3 año 1</t>
+  </si>
+  <si>
+    <t>Visitas de acompañamiento situado ciclo 3</t>
   </si>
   <si>
     <t>No reportado</t>
@@ -91,12 +103,16 @@
     <t>Docentes</t>
   </si>
   <si>
-    <t>128 Docentes Norte
-90 Docentes Centro Sur</t>
-  </si>
-  <si>
-    <t>17 EE Norte del Valle
-9 EE Centro Sur</t>
+    <t>218 Docentes</t>
+  </si>
+  <si>
+    <t>26 equipos gestores de la media</t>
+  </si>
+  <si>
+    <t>87 Docentes</t>
+  </si>
+  <si>
+    <t>134 Docentes</t>
   </si>
   <si>
     <t>6</t>
@@ -116,12 +132,6 @@
 -Dispositivo Componente didáctico y pedagógico
 -Dispositivo Proyecto de vida
 -Documentos curriculares de: Ciencias Naturales, lenguaje, matemáticas y educación física. Cada área con sus orientaciones pedagógicas y didácticas. matriz y secuencias didácticas.</t>
-  </si>
-  <si>
-    <t>- Conformación de equipo gestor 
-- Análisis de pruebas saber 
-- organización de ruta de acompañamiento
-- Análisis de dispositivo de acogida</t>
   </si>
   <si>
     <t>2147 Computadores
@@ -552,7 +562,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,16 +629,16 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -637,25 +647,25 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="L2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="M2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="N2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="O2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -672,16 +682,16 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -690,25 +700,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="L3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="M3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="N3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="O3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -725,16 +735,16 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -743,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="L4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="M4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="N4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="O4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -775,19 +785,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -796,25 +806,25 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="L5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="M5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="N5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="O5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -825,22 +835,22 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -849,25 +859,25 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M6" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="N6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="O6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -878,22 +888,22 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -902,25 +912,25 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="N7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="O7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -931,22 +941,22 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -955,25 +965,25 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="N8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="O8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -984,22 +994,22 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1008,25 +1018,25 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="N9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="O9" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1037,22 +1047,22 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1061,25 +1071,25 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K10" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L10" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M10" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="N10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="O10" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1090,22 +1100,22 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1114,25 +1124,25 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="N11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="O11" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1143,22 +1153,22 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1167,25 +1177,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K12" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L12" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M12" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="N12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O12" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1196,22 +1206,22 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1220,25 +1230,25 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L13" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M13" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="N13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1249,22 +1259,22 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1273,25 +1283,25 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J14" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K14" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L14" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M14" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="N14" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="O14" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1302,22 +1312,22 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1326,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J15" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K15" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L15" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M15" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="N15" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="O15" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1355,22 +1365,22 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1379,25 +1389,25 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J16" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K16" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L16" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M16" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="N16" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="O16" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1408,22 +1418,22 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1432,25 +1442,25 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J17" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K17" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L17" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M17" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="N17" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="O17" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1461,22 +1471,22 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1485,25 +1495,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J18" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K18" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L18" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M18" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="N18" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="O18" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1514,22 +1524,22 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1538,25 +1548,25 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J19" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K19" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L19" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M19" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="N19" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="O19" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1567,22 +1577,22 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1591,25 +1601,25 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J20" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K20" t="s">
+        <v>48</v>
+      </c>
+      <c r="L20" t="s">
+        <v>51</v>
+      </c>
+      <c r="M20" t="s">
+        <v>53</v>
+      </c>
+      <c r="N20" t="s">
         <v>43</v>
       </c>
-      <c r="L20" t="s">
-        <v>46</v>
-      </c>
-      <c r="M20" t="s">
-        <v>48</v>
-      </c>
-      <c r="N20" t="s">
-        <v>38</v>
-      </c>
       <c r="O20" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1620,22 +1630,22 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1644,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J21" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K21" t="s">
+        <v>48</v>
+      </c>
+      <c r="L21" t="s">
+        <v>51</v>
+      </c>
+      <c r="M21" t="s">
+        <v>53</v>
+      </c>
+      <c r="N21" t="s">
         <v>43</v>
       </c>
-      <c r="L21" t="s">
-        <v>46</v>
-      </c>
-      <c r="M21" t="s">
-        <v>48</v>
-      </c>
-      <c r="N21" t="s">
-        <v>38</v>
-      </c>
       <c r="O21" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -1673,22 +1683,22 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1697,25 +1707,25 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J22" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K22" t="s">
+        <v>48</v>
+      </c>
+      <c r="L22" t="s">
+        <v>51</v>
+      </c>
+      <c r="M22" t="s">
+        <v>53</v>
+      </c>
+      <c r="N22" t="s">
         <v>43</v>
       </c>
-      <c r="L22" t="s">
-        <v>46</v>
-      </c>
-      <c r="M22" t="s">
-        <v>48</v>
-      </c>
-      <c r="N22" t="s">
-        <v>38</v>
-      </c>
       <c r="O22" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -1726,22 +1736,22 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E23" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1750,25 +1760,25 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J23" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K23" t="s">
+        <v>48</v>
+      </c>
+      <c r="L23" t="s">
+        <v>51</v>
+      </c>
+      <c r="M23" t="s">
+        <v>53</v>
+      </c>
+      <c r="N23" t="s">
         <v>43</v>
       </c>
-      <c r="L23" t="s">
-        <v>46</v>
-      </c>
-      <c r="M23" t="s">
-        <v>48</v>
-      </c>
-      <c r="N23" t="s">
-        <v>38</v>
-      </c>
       <c r="O23" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -1779,22 +1789,22 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1803,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J24" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K24" t="s">
+        <v>48</v>
+      </c>
+      <c r="L24" t="s">
+        <v>51</v>
+      </c>
+      <c r="M24" t="s">
+        <v>53</v>
+      </c>
+      <c r="N24" t="s">
         <v>43</v>
       </c>
-      <c r="L24" t="s">
-        <v>46</v>
-      </c>
-      <c r="M24" t="s">
-        <v>48</v>
-      </c>
-      <c r="N24" t="s">
-        <v>39</v>
-      </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -1832,22 +1842,22 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E25" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F25" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1856,25 +1866,25 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J25" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K25" t="s">
+        <v>48</v>
+      </c>
+      <c r="L25" t="s">
+        <v>51</v>
+      </c>
+      <c r="M25" t="s">
+        <v>53</v>
+      </c>
+      <c r="N25" t="s">
         <v>43</v>
       </c>
-      <c r="L25" t="s">
-        <v>46</v>
-      </c>
-      <c r="M25" t="s">
-        <v>48</v>
-      </c>
-      <c r="N25" t="s">
-        <v>39</v>
-      </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -1885,22 +1895,22 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E26" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F26" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1909,25 +1919,25 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J26" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K26" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L26" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M26" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="N26" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -1938,22 +1948,22 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E27" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1962,25 +1972,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J27" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K27" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L27" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M27" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="N27" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -1991,22 +2001,22 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F28" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -2015,25 +2025,25 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J28" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K28" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L28" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M28" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="N28" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -2044,22 +2054,22 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D29" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F29" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2068,25 +2078,25 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J29" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K29" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L29" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M29" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="N29" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -2097,22 +2107,22 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C30" t="s">
         <v>23</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E30" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -2121,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J30" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K30" t="s">
+        <v>48</v>
+      </c>
+      <c r="L30" t="s">
+        <v>51</v>
+      </c>
+      <c r="M30" t="s">
+        <v>53</v>
+      </c>
+      <c r="N30" t="s">
         <v>44</v>
       </c>
-      <c r="L30" t="s">
-        <v>44</v>
-      </c>
-      <c r="M30" t="s">
-        <v>48</v>
-      </c>
-      <c r="N30" t="s">
-        <v>40</v>
-      </c>
       <c r="O30" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -2150,22 +2160,22 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D31" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E31" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -2174,25 +2184,25 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J31" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K31" t="s">
+        <v>48</v>
+      </c>
+      <c r="L31" t="s">
+        <v>51</v>
+      </c>
+      <c r="M31" t="s">
+        <v>53</v>
+      </c>
+      <c r="N31" t="s">
         <v>44</v>
       </c>
-      <c r="L31" t="s">
-        <v>44</v>
-      </c>
-      <c r="M31" t="s">
-        <v>48</v>
-      </c>
-      <c r="N31" t="s">
-        <v>40</v>
-      </c>
       <c r="O31" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -2206,19 +2216,19 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D32" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E32" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F32" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -2227,25 +2237,25 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J32" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K32" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="L32" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M32" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="N32" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="O32" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P32">
         <v>0</v>
@@ -2259,19 +2269,19 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D33" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E33" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -2280,30 +2290,136 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J33" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K33" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="L33" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M33" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="N33" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="O33" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P33">
         <v>0</v>
       </c>
       <c r="Q33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
+        <v>39</v>
+      </c>
+      <c r="J34" t="s">
+        <v>46</v>
+      </c>
+      <c r="K34" t="s">
+        <v>48</v>
+      </c>
+      <c r="L34" t="s">
+        <v>52</v>
+      </c>
+      <c r="M34" t="s">
+        <v>53</v>
+      </c>
+      <c r="N34" t="s">
+        <v>46</v>
+      </c>
+      <c r="O34" t="s">
+        <v>60</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>39</v>
+      </c>
+      <c r="J35" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35" t="s">
+        <v>48</v>
+      </c>
+      <c r="L35" t="s">
+        <v>52</v>
+      </c>
+      <c r="M35" t="s">
+        <v>53</v>
+      </c>
+      <c r="N35" t="s">
+        <v>46</v>
+      </c>
+      <c r="O35" t="s">
+        <v>60</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
         <v>0</v>
       </c>
     </row>
